--- a/LoLChampions.xlsx
+++ b/LoLChampions.xlsx
@@ -1,112 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipeci\Downloads\Piemeri (1)\.ipynb_checkpoints\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F30D61-81B8-4418-8CC3-5F553E81DD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="1290" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4575" yWindow="1290" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lapa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
-  <si>
-    <t>Champion</t>
-  </si>
-  <si>
-    <t>LoLalytics grade</t>
-  </si>
-  <si>
-    <t>LoLalytics grade value</t>
-  </si>
-  <si>
-    <t>AATROX</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>S+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  AHRI</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AKALI</t>
-  </si>
-  <si>
-    <t>S-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AKSHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALISTAR</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AMUMU</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ANIVIA</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>Metasrc grade</t>
-  </si>
-  <si>
-    <t>Metasrc grade value</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,28 +59,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -441,159 +427,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="20.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>LoLalytics grade</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>LoLalytics grade value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Metasrc grade</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Metasrc grade value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>AATROX</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  AHRI</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AKALI</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AKSHAN</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALISTAR</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMUMU</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANIVIA</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>8</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/LoLChampions.xlsx
+++ b/LoLChampions.xlsx
@@ -498,11 +498,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
@@ -529,11 +529,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
@@ -560,11 +560,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
@@ -591,11 +591,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>S</t>
+          <t xml:space="preserve">S </t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
@@ -622,11 +622,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
@@ -653,11 +653,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
@@ -684,11 +684,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/LoLChampions.xlsx
+++ b/LoLChampions.xlsx
@@ -15,14 +15,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -58,13 +66,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -432,22 +457,24 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="15" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="20.42578125" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="19" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="5" min="6" max="7"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>Champion</t>
@@ -458,237 +485,380 @@
           <t>LoLalytics grade</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>LoLalytics grade value</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Metasrc grade</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Metasrc grade value</t>
         </is>
       </c>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" t="inlineStr">
         <is>
           <t>AATROX</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="8" t="n">
+        <v>1.135135135135135</v>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>S+</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+      <c r="G2" s="8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.835820895522388</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  AHRI</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AHRI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="M3" t="n">
+        <v>1.149253731343284</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AKALI</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>1.22972972972973</v>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.835820895522388</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AKSHAN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="C5" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>1.324324324324324</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>13</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+      <c r="M5" t="n">
+        <v>1.358208955223881</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> AKALI</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>S-</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>S+</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALISTAR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>1.040540540540541</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.149253731343284</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> AKSHAN</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>A+</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMUMU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>0.472972972972973</v>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5223880597014926</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANIVIA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>0.8513513513513514</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S </t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ALISTAR</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>A-</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="G8" s="8" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
         <v>11</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> AMUMU</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C </t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ANIVIA</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+      <c r="M8" t="n">
+        <v>1.149253731343284</v>
       </c>
     </row>
   </sheetData>

--- a/LoLChampions.xlsx
+++ b/LoLChampions.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
@@ -512,14 +512,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>1.135135135135135</v>
+        <v>1.151324085750315</v>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>1.25</v>
+        <v>1.387959866220736</v>
       </c>
       <c r="H2" s="8" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>1.202898550724638</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -552,25 +552,25 @@
         <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>0.835820895522388</v>
+        <v>0.8253573648228713</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AHRI</t>
+          <t xml:space="preserve">  AHRI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A-</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.9419924337957125</v>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="8" t="n">
-        <v>1.083333333333333</v>
+        <v>1.202898550724638</v>
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>1.202898550724638</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="M3" t="n">
-        <v>1.149253731343284</v>
+        <v>1.134866376631448</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
@@ -614,14 +614,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S-</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>1.22972972972973</v>
+        <v>1.255989911727617</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>1.25</v>
+        <v>1.387959866220736</v>
       </c>
       <c r="H4" s="8" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>1.202898550724638</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>0.835820895522388</v>
+        <v>0.8253573648228713</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
@@ -672,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>1.324324324324324</v>
+        <v>1.465321563682219</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
@@ -683,18 +683,18 @@
         <v>11</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.01783723522854</v>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.5</v>
+        <v>1.202898550724638</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="M5" t="n">
-        <v>1.358208955223881</v>
+        <v>1.341205717837166</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
@@ -723,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>1.040540540540541</v>
+        <v>1.151324085750315</v>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.01783723522854</v>
       </c>
       <c r="H6" s="8" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>1.202898550724638</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="M6" t="n">
-        <v>1.149253731343284</v>
+        <v>1.134866376631448</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
@@ -767,14 +767,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C+</t>
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>0.472972972972973</v>
+        <v>0.6279949558638084</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7402452619843924</v>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5</v>
+        <v>0.6014492753623188</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5223880597014926</v>
+        <v>0.5158483530142945</v>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
@@ -825,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="8" t="n">
-        <v>0.8513513513513514</v>
+        <v>0.9419924337957125</v>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.01783723522854</v>
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
@@ -847,18 +847,8127 @@
         <v>8</v>
       </c>
       <c r="J8" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>11</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANNIE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>11</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APHELIOS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>11</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.149253731343284</v>
+      <c r="D10" t="n">
+        <v>0.1046658259773014</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASHE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.360655737704918</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>15</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AURELION SOL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>11</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AZIR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6279949558638084</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BARD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.360655737704918</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>13</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BEL'VETH</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.465321563682219</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>11</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>15</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLITZCRANK</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.465321563682219</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>15</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRAND</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRAUM</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>11</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>11</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRIAR</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.360655737704918</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>13</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>12</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>15</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CAITLYN</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CAMILLE</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.465321563682219</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>13</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CASSIOPEIA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>11</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHO'GATH</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>8</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORKI</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2093316519546028</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DARIUS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.255989911727617</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>13</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>15</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DIANA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5158483530142945</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DR. MUNDO</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>11</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DRAVEN</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>11</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>15</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EKKO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>13</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>11</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ELISE</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6279949558638084</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>8</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVELYNN</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.360655737704918</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>11</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>12</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>15</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EZREAL</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.465321563682219</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>15</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>15</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FIDDLESTICKS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>12</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.255989911727617</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>11</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>12</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>13</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FIORA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>14</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.465321563682219</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>13</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>12</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>15</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FIZZ</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>13</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>12</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>13</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALIO</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>13</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.360655737704918</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>11</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>11</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GANGPLANK</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>7</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5158483530142945</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GAREN</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>13</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>13</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GNAR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.6279949558638084</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>8</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRAGAS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>11</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>11</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRAVES</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.569987389659521</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>15</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>15</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GWEN</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>11</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>11</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>8</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HECARIM</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>11</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>11</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>13</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HEIMERDINGER</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1850613154960981</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>8</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HWEI</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4186633039092055</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>15</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ILLAOI</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>13</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.360655737704918</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>13</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>12</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>15</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRELIA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>11</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>11</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>11</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IVERN</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>15</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.569987389659521</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>11</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>13</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JANNA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.569987389659521</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>15</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>12</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>15</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JARVAN IV</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>13</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JAX</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>14</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.465321563682219</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>15</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>12</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>15</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JAYCE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>11</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JHIN</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>11</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>15</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>13</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JINX</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>13</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.360655737704918</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>13</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>13</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> K'SANTE</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>11</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>11</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>8</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KAI'SA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.6279949558638084</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>15</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>4</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KALISTA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>7</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>8</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KARMA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.6279949558638084</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>11</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KARTHUS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>11</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>11</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>13</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KASSADIN</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>11</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>13</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KATARINA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>11</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>13</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>13</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KAYLE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>10</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>11</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>8</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>11</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KAYN</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>11</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>15</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>8</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KENNEN</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>8</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KHA'ZIX</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>13</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.360655737704918</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>13</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>12</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>15</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KINDRED</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>12</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.255989911727617</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>11</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>11</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KLED</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>9</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>11</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KOG'MAW</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>11</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LEBLANC</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>7</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>11</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>8</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LEE SIN</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>15</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LEONA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>10</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>13</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>13</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LILLIA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>11</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>8</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LISSANDRA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>11</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>11</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LUCIAN</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>10</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>13</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>15</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LULU</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>4</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LUX</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>9</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>15</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MALPHITE</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>10</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>13</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>12</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>15</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MALZAHAR</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.6279949558638084</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>11</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>11</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAOKAI</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>11</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>8</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER YI</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>12</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.255989911727617</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>13</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>15</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MILIO</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>10</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>13</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>11</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MISS FORTUNE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>11</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MORDEKAISER</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>8</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>8</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MORGANA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>8</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>15</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>8</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NAAFIRI</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.6279949558638084</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>8</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>11</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NAMI</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>13</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>11</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NASUS</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>10</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>13</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>13</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NAUTILUS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEEKO</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>12</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.255989911727617</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>11</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>11</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NIDALEE</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>8</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>11</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>8</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NILAH</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>5</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>8</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>13</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOCTURNE</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>10</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>15</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>15</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUNU</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>8</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>8</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OLAF</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>15</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.569987389659521</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>8</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>12</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>13</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ORIANNA</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>13</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>12</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>5</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.5158483530142945</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ORNN</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>13</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.360655737704918</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>13</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>12</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>13</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PANTHEON</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>8</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>8</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> POPPY</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>8</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>8</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PYKE</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>14</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.465321563682219</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>15</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>8</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>15</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QIYANA</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>12</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.255989911727617</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>8</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>11</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUINN</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>12</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.255989911727617</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>8</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>11</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RAKAN</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>15</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.569987389659521</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>15</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>12</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>15</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RAMMUS</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>10</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>11</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>12</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>15</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REK'SAI</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>10</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>8</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>4</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>11</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RELL</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>12</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.255989911727617</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>11</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>8</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>11</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RENATA</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>10</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>11</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>4</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>11</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RENEKTON</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>11</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RENGAR</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>10</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>11</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>13</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RIVEN</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>15</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.569987389659521</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>13</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>12</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>13</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RUMBLE</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>8</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>5</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.5158483530142945</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RYZE</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.3139974779319042</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>8</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SAMIRA</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>11</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>8</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>5</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.5158483530142945</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SEJUANI</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.4186633039092055</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>8</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SENNA</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>14</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.465321563682219</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>15</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>12</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>15</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SERAPHINE</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>8</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>8</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>4</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>8</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SETT</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>11</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>4</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>5</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.5158483530142945</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHACO</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>11</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>13</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>12</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>15</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHEN</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>11</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>4</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>8</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHYVANA</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.6279949558638084</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>8</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SINGED</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>12</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.255989911727617</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>11</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>12</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>11</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SION</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.4186633039092055</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>4</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIVIR</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.3139974779319042</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>5</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.5158483530142945</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SKARNER</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>7</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.1031696706028589</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SONA</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>11</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>8</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>11</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SORAKA</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>13</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.360655737704918</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>13</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>12</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>13</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SWAIN</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>8</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>4</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>5</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.5158483530142945</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SYLAS</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>11</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>15</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>12</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>15</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SYNDRA</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>11</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>13</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>12</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>13</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TAHM KENCH</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>11</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>8</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>11</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TALIYAH</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>14</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.465321563682219</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>11</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>8</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>13</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TALON</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>15</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.569987389659521</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>11</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>12</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>13</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TARIC</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>8</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>8</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>11</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TEEMO</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>11</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>8</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>8</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> THRESH</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>12</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.255989911727617</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>15</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>8</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>13</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRISTANA</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>8</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>11</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRUNDLE</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>11</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>13</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>8</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>15</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRYNDAMERE</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>11</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>11</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>8</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>11</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWISTED FATE</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>14</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.465321563682219</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>11</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>12</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>11</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWITCH</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>11</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>11</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>12</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>15</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UDYR</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>8</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>4</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>8</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> URGOT</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>8</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>8</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>11</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VARUS</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>13</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>4</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VAYNE</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>15</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.569987389659521</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>13</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>12</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>15</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VEIGAR</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.6279949558638084</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>11</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>4</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>11</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VEL'KOZ</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>4</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>8</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VEX</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>11</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>11</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>8</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>13</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VI</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>11</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>4</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIEGO</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>13</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>8</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIKTOR</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>11</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>4</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>11</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VLADIMIR</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>10</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>11</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>11</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VOLIBEAR</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>8</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>5</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.5158483530142945</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WARWICK</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>8</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>4</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>8</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WUKONG</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.5233291298865069</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>5</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XAYAH</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.6279949558638084</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>11</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>4</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XERATH</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>S-</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>13</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.360655737704918</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>13</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>12</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.804347826086957</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>15</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.547545059042884</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XIN ZHAO</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>8</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>4</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>8</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> YASUO</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>12</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.255989911727617</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>15</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>4</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>8</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0.8253573648228713</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> YONE</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.7326607818411097</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>15</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.387959866220736</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>4</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> YORICK</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.2093316519546028</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> YUUMI</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.6279949558638084</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>13</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZAC</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>11</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>11</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>8</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>11</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZED</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>13</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>4</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZERI</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.3139974779319042</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>2</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.1850613154960981</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>4</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0.2063393412057178</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZIGGS</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.8373266078184111</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>5</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.4626532887402453</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>4</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>13</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1.341205717837166</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZILEAN</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>9</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.9419924337957125</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>8</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>4</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>11</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZOE</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>10</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.046658259773014</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>8</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.7402452619843924</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>4</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>11</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1.134866376631448</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZYRA</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>11</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.151324085750315</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>11</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.01783723522854</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>8</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.202898550724638</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>13</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1.341205717837166</v>
       </c>
     </row>
   </sheetData>
